--- a/Exceldata/Excel Report.xlsx
+++ b/Exceldata/Excel Report.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="63">
   <si>
     <t>NAME</t>
   </si>
@@ -111,7 +111,7 @@
     <t>Dimension</t>
   </si>
   <si>
-    <t>IE</t>
+    <t>chrome</t>
   </si>
   <si>
     <t>https://www.grootan.com/</t>
@@ -183,19 +183,19 @@
     <t>C:\Users\Pandiyan\eclipse-workspace\Grootanchanges\.\Folder 2\Home.png</t>
   </si>
   <si>
+    <t>C:\Users\Pandiyan\eclipse-workspace\Grootanchanges\.\Folder 2\Service.png</t>
+  </si>
+  <si>
+    <t>C:\Users\Pandiyan\eclipse-workspace\Grootanchanges\.\Folder 2\Opensource.png</t>
+  </si>
+  <si>
+    <t>C:\Users\Pandiyan\eclipse-workspace\Grootanchanges\.\Folder 2\Blog.png</t>
+  </si>
+  <si>
+    <t>C:\Users\Pandiyan\eclipse-workspace\Grootanchanges\.\Folder 2\Team.png</t>
+  </si>
+  <si>
     <t>Images are same</t>
-  </si>
-  <si>
-    <t>C:\Users\Pandiyan\eclipse-workspace\Grootanchanges\.\Folder 2\Service.png</t>
-  </si>
-  <si>
-    <t>C:\Users\Pandiyan\eclipse-workspace\Grootanchanges\.\Folder 2\Opensource.png</t>
-  </si>
-  <si>
-    <t>C:\Users\Pandiyan\eclipse-workspace\Grootanchanges\.\Folder 2\Blog.png</t>
-  </si>
-  <si>
-    <t>C:\Users\Pandiyan\eclipse-workspace\Grootanchanges\.\Folder 2\Team.png</t>
   </si>
   <si>
     <t>C:\Users\Pandiyan\eclipse-workspace\Grootanchanges\.\Folder 2\Careers.png</t>
@@ -212,10 +212,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -235,9 +235,31 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -249,61 +271,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -324,20 +309,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -364,14 +335,43 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -386,25 +386,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -416,157 +530,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -582,9 +582,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -600,30 +602,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -669,11 +647,33 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -682,148 +682,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1156,14 +1156,14 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="27.4285714285714" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="53.1428571428571" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="27" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="27.4285714285714" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="53.1428571428571" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="27.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1174,7 +1174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1182,7 +1182,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1190,7 +1190,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1198,7 +1198,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1206,7 +1206,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1214,7 +1214,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -1222,7 +1222,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1230,7 +1230,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -1238,7 +1238,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -1246,7 +1246,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -1254,7 +1254,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -1262,7 +1262,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -1270,7 +1270,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -1290,16 +1290,16 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="17.7142857142857" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="28" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.4285714285714" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.5714285714286" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.7142857142857" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="17.7142857142857" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="28.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.4285714285714" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="16.5714285714286" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.7142857142857" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1341,14 +1341,14 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="43.8571428571429" customWidth="1"/>
-    <col min="2" max="2" width="14.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="76.2857142857143" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="43.8571428571429" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="14.5714285714286" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="76.2857142857143" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1362,7 +1362,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -1373,7 +1373,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3">
       <c r="A3" t="s">
         <v>40</v>
       </c>
@@ -1384,7 +1384,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -1395,7 +1395,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -1406,7 +1406,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6">
       <c r="A6" t="s">
         <v>46</v>
       </c>
@@ -1417,7 +1417,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7">
       <c r="A7" t="s">
         <v>48</v>
       </c>
@@ -1428,7 +1428,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8">
       <c r="A8" t="s">
         <v>50</v>
       </c>
@@ -1439,7 +1439,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9">
       <c r="A9" t="s">
         <v>52</v>
       </c>
@@ -1450,18 +1450,18 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10">
       <c r="A10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" t="s">
         <v>55</v>
       </c>
-      <c r="B10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+    </row>
+    <row r="11">
       <c r="A11" t="s">
         <v>52</v>
       </c>
@@ -1469,34 +1469,34 @@
         <v>53</v>
       </c>
       <c r="C11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B12" t="s">
         <v>38</v>
       </c>
       <c r="C12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>55</v>
-      </c>
-      <c r="B13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" t="s">
+    <row r="14">
+      <c r="A14" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>55</v>
       </c>
       <c r="B14" t="s">
         <v>38</v>
@@ -1505,18 +1505,18 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15">
       <c r="A15" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="C15" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16">
       <c r="A16" t="s">
         <v>52</v>
       </c>
